--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagnik/work/fungal_genome_assemblies_and_annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C711A389-815D-9C4C-808C-436EE4870F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ABF98D-0148-0447-BBED-DA4B4D5D4470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{24C2495F-EDE7-3247-B59C-E45DF1D9AF94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Cf</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>Scaffolding</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/fungal_genome_assemblies_and_annotation/pbs_scripts/genome_assembly/masurca/Cf.pbs</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/fungal_genome_assemblies_and_annotation/pbs_scripts/genome_assembly/masurca/Cs.pbs</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/fungal_genome_assemblies_and_annotation/pbs_scripts/genome_assembly/masurca/Sg.pbs</t>
   </si>
 </sst>
 </file>
@@ -107,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,6 +126,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,13 +450,14 @@
   <dimension ref="B2:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E2" sqref="E2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="13" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
@@ -461,32 +477,32 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="E3" s="3" t="s">
+    <row r="3" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -514,6 +530,15 @@
       <c r="B7" s="2"/>
       <c r="C7" t="s">
         <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagnik/work/fungal_genome_assemblies_and_annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ABF98D-0148-0447-BBED-DA4B4D5D4470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942E3CD3-6F01-A140-99BB-6740FAD14A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{24C2495F-EDE7-3247-B59C-E45DF1D9AF94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Cf</t>
   </si>
@@ -81,16 +81,29 @@
   </si>
   <si>
     <t>/project/maizegdb/sagnik/fungal_genome_assemblies_and_annotation/pbs_scripts/genome_assembly/masurca/Sg.pbs</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/masurca/Sg/primary.genome.scf.fasta</t>
+  </si>
+  <si>
+    <t>Jan 15th, 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,6 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,7 +464,7 @@
   <dimension ref="B2:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:M2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,6 +554,12 @@
       <c r="K7" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="L7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagnik/work/fungal_genome_assemblies_and_annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942E3CD3-6F01-A140-99BB-6740FAD14A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27911084-447F-D342-8A20-2BC35CDC8862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{24C2495F-EDE7-3247-B59C-E45DF1D9AF94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Cf</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Jan 15th, 2023</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/masurca/Cs/primary.genome.scf.fasta</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <dimension ref="B2:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,6 +554,12 @@
       <c r="H7" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="K7" s="5" t="s">
         <v>14</v>
       </c>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagnik/work/fungal_genome_assemblies_and_annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27911084-447F-D342-8A20-2BC35CDC8862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083C3A68-6EAC-3B45-9212-1905059C0EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{24C2495F-EDE7-3247-B59C-E45DF1D9AF94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Cf</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Megahit</t>
   </si>
   <si>
-    <t>Abyss</t>
-  </si>
-  <si>
     <t>Masurca</t>
   </si>
   <si>
@@ -90,6 +87,51 @@
   </si>
   <si>
     <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/masurca/Cs/primary.genome.scf.fasta</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/megahit/Cs/final.contigs.fa</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.2.9</t>
+  </si>
+  <si>
+    <t>4.0.9</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/megahit/Sg/final.contigs.fa</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/masurca/Cf/primary.genome.scf.fasta</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/fungal_genome_assemblies_and_annotation/pbs_scripts/genome_assembly/megahit/Sg.pbs</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/fungal_genome_assemblies_and_annotation/pbs_scripts/genome_assembly/megahit/Cs.pbs</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/fungal_genome_assemblies_and_annotation/pbs_scripts/genome_assembly/megahit/Cf.pbs</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Cs/soapdenovo127mer_output.scafSeq</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/fungal_genome_assemblies_and_annotation/pbs_scripts/genome_assembly/soapdenovo2/Cs.pbs</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/fungal_genome_assemblies_and_annotation/pbs_scripts/genome_assembly/soapdenovo2/Cf.pbs</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/fungal_genome_assemblies_and_annotation/pbs_scripts/genome_assembly/soapdenovo2/Sg.pbs</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/megahit/Cf/final.contigs.fa</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Sg/soapdenovo127mer_output.scafSeq</t>
   </si>
 </sst>
 </file>
@@ -132,8 +174,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -149,7 +194,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,123 +511,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64446D30-1A47-D147-BB82-772E42F54F51}">
-  <dimension ref="B2:M10"/>
+  <dimension ref="B2:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="13" width="10.83203125" style="5"/>
+    <col min="4" max="5" width="12" customWidth="1"/>
+    <col min="6" max="16" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="4" t="s">
+    <row r="3" spans="2:16" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>2.04</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>11</v>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagnik/work/fungal_genome_assemblies_and_annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083C3A68-6EAC-3B45-9212-1905059C0EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E970CC6-7DB8-8248-BEAF-F2C78B9FADF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{24C2495F-EDE7-3247-B59C-E45DF1D9AF94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Cf</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Sg/soapdenovo127mer_output.scafSeq</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Cf/soapdenovo127mer_output.scafSeq</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <dimension ref="B2:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,6 +593,9 @@
       <c r="F4" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="J4" s="6" t="s">
         <v>27</v>
       </c>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagnik/work/fungal_genome_assemblies_and_annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E970CC6-7DB8-8248-BEAF-F2C78B9FADF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F85179-C800-6A4C-9201-6C5D266386C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{24C2495F-EDE7-3247-B59C-E45DF1D9AF94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Cf</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Cf/soapdenovo127mer_output.scafSeq</t>
+  </si>
+  <si>
+    <t>NOTHING WORKED!</t>
+  </si>
+  <si>
+    <t>Alignment of DNA-Sequences</t>
   </si>
 </sst>
 </file>
@@ -514,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64446D30-1A47-D147-BB82-772E42F54F51}">
-  <dimension ref="B2:P9"/>
+  <dimension ref="B2:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,6 +602,9 @@
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="6" t="s">
         <v>27</v>
       </c>
@@ -626,6 +635,9 @@
       <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="6" t="s">
         <v>24</v>
       </c>
@@ -659,6 +671,9 @@
       <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="6" t="s">
         <v>12</v>
       </c>
@@ -681,6 +696,14 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/progress.xlsx
+++ b/progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagnik/work/fungal_genome_assemblies_and_annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F85179-C800-6A4C-9201-6C5D266386C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F870D514-1E6A-974A-B142-31FEC4B45A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{24C2495F-EDE7-3247-B59C-E45DF1D9AF94}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
   <si>
     <t>Cf</t>
   </si>
@@ -83,9 +83,6 @@
     <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/masurca/Sg/primary.genome.scf.fasta</t>
   </si>
   <si>
-    <t>Jan 15th, 2023</t>
-  </si>
-  <si>
     <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/masurca/Cs/primary.genome.scf.fasta</t>
   </si>
   <si>
@@ -140,14 +137,74 @@
     <t>NOTHING WORKED!</t>
   </si>
   <si>
-    <t>Alignment of DNA-Sequences</t>
+    <t>Jan 21st, 2023</t>
+  </si>
+  <si>
+    <t>FGMP</t>
+  </si>
+  <si>
+    <t>Alignment of RNA-Seq data</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/megahit/Cf_fgmp</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/megahit/Cs_fgmp</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/megahit/Sg_fgmp</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Cf_fgmp</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Cs_fgmp</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Sg_fgmp</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/masurca/Cf_fgmp</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/masurca/Cs_fgmp</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/masurca/Sg_fgmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/megahit/Cf_rna_seq_alignments/merged_1.log </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Cf_rna_seq_alignments/merged_1.log </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/masurca/Cf_rna_seq_alignments/merged_1.log </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Cs_rna_seq_alignments/merged_1.log </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Sg_rna_seq_alignments/merged_1.log </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/megahit/Cs_rna_seq_alignments/merged_1.log </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/megahit/Sg_rna_seq_alignments/merged_1.log </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/masurca/Cs_rna_seq_alignments/merged_1.log </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/masurca/Sg_rna_seq_alignments/merged_1.log </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +215,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,16 +246,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -205,6 +262,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,74 +589,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64446D30-1A47-D147-BB82-772E42F54F51}">
-  <dimension ref="B2:P11"/>
+  <dimension ref="B2:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H16" sqref="H16:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" customWidth="1"/>
-    <col min="6" max="16" width="10.83203125" style="6"/>
+    <col min="6" max="16" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="2:16" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="2:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -596,101 +665,104 @@
       <c r="D4">
         <v>2.04</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>31</v>
+      <c r="O4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="G5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>15</v>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
+      <c r="B6" s="6"/>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="L6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>15</v>
+      <c r="P6" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.2">
@@ -698,21 +770,221 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B11:B13"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>